--- a/rx_PSC_MoveoutException.xlsx
+++ b/rx_PSC_MoveoutException.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BerilP\repos\MoveoutException_YSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3FA7D3-05A9-4101-BCDD-8DA27A38F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9F83B-EE92-4043-A8EE-4637C412E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D889234F-FDF9-40E5-85AA-4DF640421007}"/>
+    <workbookView xWindow="-14910" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D889234F-FDF9-40E5-85AA-4DF640421007}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
@@ -144,12 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +488,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,40 +504,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -556,10 +557,10 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">

--- a/rx_PSC_MoveoutException.xlsx
+++ b/rx_PSC_MoveoutException.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BerilP\repos\MoveoutException_YSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9F83B-EE92-4043-A8EE-4637C412E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7DDA39-7074-4365-A139-2077037E56EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14910" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D889234F-FDF9-40E5-85AA-4DF640421007}"/>
+    <workbookView xWindow="15795" yWindow="-11760" windowWidth="16440" windowHeight="10170" xr2:uid="{D889234F-FDF9-40E5-85AA-4DF640421007}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Tenant Status</t>
   </si>
   <si>
-    <t>Exception</t>
-  </si>
-  <si>
     <t>&amp;=display.Property_Code</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>&amp;=display.MoveOut_Exception</t>
+  </si>
+  <si>
+    <t>Days Exception</t>
   </si>
 </sst>
 </file>
@@ -147,10 +147,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,20 +500,20 @@
     <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -538,33 +538,33 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
